--- a/Taches.xlsx
+++ b/Taches.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7484CC8F-26BA-4530-B637-382D624E47DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{02342719-450F-4ECF-BAFF-C705657954E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Micro</t>
   </si>
@@ -33,9 +32,6 @@
     <t>Moteur</t>
   </si>
   <si>
-    <t>Supposition</t>
-  </si>
-  <si>
     <t>Deplacement auto</t>
   </si>
   <si>
@@ -45,20 +41,38 @@
     <t>Communication BT</t>
   </si>
   <si>
-    <t>vivian</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>detection son</t>
+    <t>Prévision</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Qui?</t>
+  </si>
+  <si>
+    <t>Quoi?</t>
+  </si>
+  <si>
+    <t>Quand?</t>
+  </si>
+  <si>
+    <t>Détection son</t>
+  </si>
+  <si>
+    <t>Mis à jour le 15/01/2019</t>
+  </si>
+  <si>
+    <t>Suivi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,8 +87,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,12 +105,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -97,11 +125,110 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -109,17 +236,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,212 +599,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5D213D-8550-4FEA-83CA-DC445A744432}">
-  <dimension ref="A2:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
         <v>43454</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D3" s="11">
         <v>43110</v>
       </c>
-      <c r="G2" s="1">
+      <c r="E3" s="11">
         <v>43117</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F3" s="11">
         <v>43135</v>
       </c>
-      <c r="I2" s="1">
+      <c r="G3" s="11">
         <v>43142</v>
       </c>
-      <c r="J2" s="1">
+      <c r="H3" s="11">
         <v>43156</v>
       </c>
-      <c r="K2" s="1">
+      <c r="I3" s="11">
         <v>43163</v>
       </c>
-      <c r="L2" s="1">
+      <c r="J3" s="12">
         <v>43170</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>43454</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43110</v>
+      </c>
+      <c r="E13" s="11">
+        <v>43117</v>
+      </c>
+      <c r="F13" s="11">
+        <v>43135</v>
+      </c>
+      <c r="G13" s="11">
+        <v>43142</v>
+      </c>
+      <c r="H13" s="11">
+        <v>43156</v>
+      </c>
+      <c r="I13" s="11">
+        <v>43163</v>
+      </c>
+      <c r="J13" s="12">
+        <v>43170</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="7"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="A21:J21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Taches.xlsx
+++ b/Taches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Micro</t>
   </si>
@@ -62,10 +62,19 @@
     <t>Détection son</t>
   </si>
   <si>
-    <t>Mis à jour le 15/01/2019</t>
-  </si>
-  <si>
     <t>Suivi</t>
+  </si>
+  <si>
+    <t>&amp; Vivian</t>
+  </si>
+  <si>
+    <t>Commun</t>
+  </si>
+  <si>
+    <t>Intégration module son</t>
+  </si>
+  <si>
+    <t>Mis à jour le 03/02/2019</t>
   </si>
 </sst>
 </file>
@@ -116,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -232,11 +241,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -284,6 +308,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C12" sqref="C12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,10 +781,26 @@
       <c r="D9" s="13"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="5"/>
@@ -768,7 +812,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="23" t="s">
@@ -822,11 +866,11 @@
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -841,12 +885,14 @@
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -864,8 +910,8 @@
         <v>4</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -884,7 +930,7 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -925,7 +971,7 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -937,17 +983,21 @@
       <c r="N19" s="3"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="3"/>
       <c r="L20" s="6"/>
       <c r="M20" s="3"/>
@@ -955,22 +1005,24 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -978,7 +1030,7 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Taches.xlsx
+++ b/Taches.xlsx
@@ -74,7 +74,7 @@
     <t>Intégration module son</t>
   </si>
   <si>
-    <t>Mis à jour le 03/02/2019</t>
+    <t>Mis à jour le 10/02/2019</t>
   </si>
 </sst>
 </file>
@@ -292,6 +292,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,10 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +631,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:J12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,20 +642,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,20 +811,20 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
     </row>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -889,11 +889,11 @@
         <v>0</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -910,9 +910,9 @@
         <v>4</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -930,8 +930,8 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -971,8 +971,8 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -1011,18 +1011,18 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Taches.xlsx
+++ b/Taches.xlsx
@@ -74,7 +74,7 @@
     <t>Intégration module son</t>
   </si>
   <si>
-    <t>Mis à jour le 10/02/2019</t>
+    <t>Mis à jour le 25/02/2019</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,8 +973,8 @@
       <c r="D19" s="16"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="16"/>
       <c r="J19" s="21"/>
       <c r="K19" s="6"/>
@@ -994,8 +994,8 @@
       <c r="D20" s="13"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="16"/>
       <c r="J20" s="14"/>
       <c r="K20" s="3"/>

--- a/Taches.xlsx
+++ b/Taches.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163158E5-202A-421F-B82A-72DC3B81CEEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Micro</t>
   </si>
@@ -74,13 +75,16 @@
     <t>Intégration module son</t>
   </si>
   <si>
-    <t>Mis à jour le 25/02/2019</t>
+    <t>Mis à jour le 4/03/2019</t>
+  </si>
+  <si>
+    <t>séance de vérification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,14 +264,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,12 +285,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,402 +623,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>43454</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>43110</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <v>43117</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <v>43135</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <v>43142</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="7">
         <v>43156</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <v>43163</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="8">
         <v>43170</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>43454</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>43110</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>43117</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="7">
         <v>43135</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>43142</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <v>43156</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <v>43163</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="8">
         <v>43170</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Taches.xlsx
+++ b/Taches.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163158E5-202A-421F-B82A-72DC3B81CEEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -75,16 +74,16 @@
     <t>Intégration module son</t>
   </si>
   <si>
-    <t>Mis à jour le 4/03/2019</t>
-  </si>
-  <si>
-    <t>séance de vérification</t>
+    <t>Séance de vérification</t>
+  </si>
+  <si>
+    <t>Mis à jour le 9/03/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -310,6 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,21 +623,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="J2" s="19"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -686,7 +686,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -798,14 +798,14 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -855,7 +855,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -871,7 +871,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -905,7 +905,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -951,9 +951,9 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -967,25 +967,25 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>16</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
